--- a/智慧車輛/工作日誌.xlsx
+++ b/智慧車輛/工作日誌.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOLab\Documents\研究所資料\智慧車輛\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Documents\institute_information\智慧車輛\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{787C52F8-F6DA-46E1-A48F-0A619BD91D1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A6D944-788F-4F88-92CC-6848A05A80AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BAD20680-5A1E-4404-9BFB-81DC54D13F81}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{BAD20680-5A1E-4404-9BFB-81DC54D13F81}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -34,16 +34,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>新任務</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>查核任務</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>聆聽課堂介紹</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -56,10 +52,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>討論</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -68,18 +60,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>了解貨卡組未來工作，進行分組(車輛模型組/ADAS組)，分配到車輛模型組</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>了解EC35貨卡車型、懸吊系統，以利未來建模</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>懸吊的量測工作暫停</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>取得車輛慣性矩(偏擺方向)。初步規劃用Inventor繪製車輛模型用來計算慣性矩</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -104,11 +88,103 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>閱讀文獻:Estimation of Mass Moments of Inertia of Automobile。分析現代車輛慣性矩的文獻，採用蒙地卡羅統計後，取得經驗公式。帶入EC35的數值後出現了還算合理的慣系矩數值。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>期中報告</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查核任務/討論</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>閱讀文獻:Estimation of Mass Moments of Inertia of Automobile。分析現代車輛慣性矩的文獻，採用蒙地卡羅法統計分析後，取得將車輛參數線性化的經驗公式。帶入EC35的數值後出現了還算合理的慣系矩數值。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>這周換了一些關鍵字搜尋。發現有蠻多篇論文都寫到很難透過直接計算得到車輛的慣性矩，只能用預估的。而預估的方法五花八門，但是大致上都是用車輛上之感測器量測車輛的動態變數，再配合已知的速度、轉向角等參數回推車輛的慣性矩。閱讀文獻(一):A method for estimation of vehicle inertial parameters。這篇主要再強調可以用行駛車輛的動態參數預估車輛的慣性矩，但是本篇論文的方法實際上僅限得到車輛的pitch&amp;roll兩方向的慣性矩，我們主要想知道的yaw方向慣性矩卻沒有多加著墨，只有說pitch和yaw方向的慣性矩存在關聯性。閱讀文獻(二):A Least-Squares Regression Based Method for Vehicle Yaw Moment of Inertia Estimation。採用最小平方回歸預估車輛的yaw慣性矩，同樣是使用到車輛的動態參數，結果顯示與carsim模型的慣性矩誤差甚小(雖然carsim的模型慣性矩不見得是對的)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>閱讀文獻:Dual extended Kalman filter for vehicle state and parameter estimation。量測車輛的動態參數，並使用雙層擴增卡爾曼濾波器來預估車輛的慣性矩。而預估的準確率受輪胎模型影響，有可能到20%卻也有可能僅有4%。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>繼續查找關於車輛慣性矩之文獻，並整理我負責的資料。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>這周為了報告需求，去查詢了如何透過量測獲得實際車輛慣性矩的方法，並將其結果與預估的車輛慣性矩做比較。總共閱讀了兩篇文獻。Measurement of the Yawing Moment and Product of Inertia of an Aircraft by the Single Point Suspension Method" Theory and Rig Design: 懸吊法。MEASURING THE YAW MOMENT OF INERTIA OF A VEHICLE: 扭擺法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究split friction。從matlab simulik 上有找到範例，試著調整了一下環境參數，讓車輛在有縱向加速度變化時，左右側分別進入摩擦係數不同的地面。結果證實了，車輛在進行減速時進入split friction，車頭會偏向路面摩擦係數大的一邊；反之，在加速時，車輛車頭會偏向路面摩擦係數較小的一邊。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查詢Double Lane Change(ISO-3888-2)測試工況，並依據工況規劃我們的車子執行轉向的funtion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>討論到要將我們的EC35貨卡模型套用在slip friction 和 Double Lane Change兩個測試工況上。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查詢、蒐集slip friction 和 Double Lane Change兩個測試工況</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>依據輪型機器人的路徑規劃公式，做出了一份假設車子為bicycle model、沒有側滑，非常理想的double lane change 路徑，並依據定速車速來回推我們的EC35模型在幾秒時應當轉向轉幾度。目前的轉向規劃太理想了，可能日後還需進行修正。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理自己負責的資料</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理資料</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>教師節停課</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>車輛感測與ADAS簡介</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V cycle與HiL簡介</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>電動巴士的發展與現況</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>期中考周停課</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>智慧二輪車</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自駕車虛擬驗證技術</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>電池管理與安全</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>車用控制器理論與實務</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>車輛動態分析概論</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>期末報告</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -119,7 +195,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -140,6 +216,14 @@
       <sz val="9"/>
       <name val="新細明體"/>
       <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3D454C"/>
+      <name val="新細明體"/>
+      <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -189,11 +273,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -202,14 +283,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -526,204 +607,229 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4079C6DD-0C92-4A6C-A7B4-A0E68BC45190}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
+    <col min="1" max="1" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32" customWidth="1"/>
-    <col min="3" max="3" width="30.5" customWidth="1"/>
-    <col min="4" max="4" width="28.125" customWidth="1"/>
-    <col min="5" max="5" width="30" customWidth="1"/>
+    <col min="3" max="3" width="105.90625" customWidth="1"/>
+    <col min="4" max="4" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>45176</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="34" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>45183</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="99" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="51" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>45190</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="99" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" ht="51" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>45197</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="148.5" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="51" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>45204</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="34" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>45211</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="136" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>45218</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="34" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>45225</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="B9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="68" x14ac:dyDescent="0.4">
+      <c r="A10" s="3">
         <v>45232</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" ht="51" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>45239</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="68" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>45246</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="51" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>45253</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>45260</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>45267</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>45274</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="C16" s="2"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="D16" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/智慧車輛/工作日誌.xlsx
+++ b/智慧車輛/工作日誌.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Documents\institute_information\智慧車輛\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOLab\Documents\研究所資料\智慧車輛\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A6D944-788F-4F88-92CC-6848A05A80AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A06E2A5-F4CF-40E8-AFE1-1B6A7CE9B2ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{BAD20680-5A1E-4404-9BFB-81DC54D13F81}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BAD20680-5A1E-4404-9BFB-81DC54D13F81}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -610,18 +610,18 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection sqref="A1:D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32" customWidth="1"/>
-    <col min="3" max="3" width="105.90625" customWidth="1"/>
+    <col min="3" max="3" width="105.875" customWidth="1"/>
     <col min="4" max="4" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>2</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45176</v>
       </c>
@@ -647,7 +647,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="34" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" ht="33" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45183</v>
       </c>
@@ -659,7 +659,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="51" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45190</v>
       </c>
@@ -673,7 +673,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="51" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45197</v>
       </c>
@@ -687,7 +687,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="51" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45204</v>
       </c>
@@ -701,7 +701,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="34" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" ht="33" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45211</v>
       </c>
@@ -715,7 +715,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="136" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45218</v>
       </c>
@@ -729,7 +729,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="34" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" ht="33" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45225</v>
       </c>
@@ -743,7 +743,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="68" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>45232</v>
       </c>
@@ -755,7 +755,7 @@
       </c>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:4" ht="51" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" ht="33" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>45239</v>
       </c>
@@ -769,7 +769,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="68" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>45246</v>
       </c>
@@ -783,7 +783,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="51" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" ht="33" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>45253</v>
       </c>
@@ -797,7 +797,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>45260</v>
       </c>
@@ -809,7 +809,7 @@
       </c>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>45267</v>
       </c>
@@ -821,18 +821,19 @@
       </c>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A16" s="1">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>45274</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>